--- a/results/github_languages.xlsx
+++ b/results/github_languages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,23 +549,23 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>JavaScript</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -574,13 +574,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -595,23 +595,23 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>TypeScript</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -641,23 +641,23 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>C++</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -687,23 +687,23 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>JavaScript</t>
+          <t>Dart</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -733,23 +733,23 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>C++</t>
+          <t>TypeScript</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -779,23 +779,23 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Rust</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -825,23 +825,23 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Vue</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -871,20 +871,20 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>C#</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -917,23 +917,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Shell</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>26</v>
+      </c>
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -963,20 +963,20 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1009,20 +1009,20 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>Rust</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Kotlin</t>
+          <t>Clojure</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
         <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1101,26 +1101,26 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Go</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1147,20 +1147,20 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Shell</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1193,23 +1193,23 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Ruby</t>
+          <t>C#</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
         <v>2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1239,20 +1239,20 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Swift</t>
+          <t>Assembly</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1285,20 +1285,20 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Jupyter Notebook</t>
+          <t>Vim script</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1331,20 +1331,20 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Kotlin</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1377,23 +1377,23 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>TeX</t>
+          <t>Swift</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Haskell</t>
+          <t>Julia</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1469,20 +1469,20 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>HTML</t>
+          <t>Markdown</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1515,20 +1515,20 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jinja</t>
+          <t>Ruby</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1561,7 +1561,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Standard ML</t>
+          <t>SCSS</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1574,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1607,14 +1607,14 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>Objective-C</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1653,20 +1653,20 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>SCSS</t>
+          <t>Scala</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1699,14 +1699,14 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Markdown</t>
+          <t>Lua</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1745,20 +1745,20 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Vim script</t>
+          <t>HTML</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1791,20 +1791,20 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Scala</t>
+          <t>Roff</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1837,20 +1837,20 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Objective-C</t>
+          <t>Haskell</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1883,20 +1883,20 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Dart</t>
+          <t>Batchfile</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1929,7 +1929,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CMake</t>
+          <t>Emacs Lisp</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Blade</t>
+          <t>OCaml</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -2021,7 +2021,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Jsonnet</t>
+          <t>Elixir</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2061,6 +2061,420 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>AsciiDoc</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>CoffeeScript</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>TeX</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Makefile</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Mustache</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Objective-C++</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Perl</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Dockerfile</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Jinja</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>0</v>
       </c>
     </row>
